--- a/src/src/test/resources/input_cuocHop_test.xlsx
+++ b/src/src/test/resources/input_cuocHop_test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Tiêu đề</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Địa điểm</t>
   </si>
   <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
     <t>abc</t>
   </si>
   <si>
@@ -46,6 +43,18 @@
   </si>
   <si>
     <t>8/8/2024</t>
+  </si>
+  <si>
+    <t>Sprint 100</t>
+  </si>
+  <si>
+    <t>Sprint 101</t>
+  </si>
+  <si>
+    <t>Sprint 102</t>
+  </si>
+  <si>
+    <t>Sprint 103</t>
   </si>
 </sst>
 </file>
@@ -386,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,10 +431,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>0.35416666666666669</v>
@@ -434,10 +443,70 @@
         <v>0.40625</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/src/test/resources/input_cuocHop_test.xlsx
+++ b/src/src/test/resources/input_cuocHop_test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>Tiêu đề</t>
   </si>
@@ -36,25 +36,115 @@
     <t>Địa điểm</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
     <t>HCMUS I41</t>
   </si>
   <si>
-    <t>8/8/2024</t>
-  </si>
-  <si>
-    <t>Sprint 100</t>
-  </si>
-  <si>
-    <t>Sprint 101</t>
-  </si>
-  <si>
-    <t>Sprint 102</t>
-  </si>
-  <si>
-    <t>Sprint 103</t>
+    <t>Quarterly Business Review</t>
+  </si>
+  <si>
+    <t>Team Strategy Session</t>
+  </si>
+  <si>
+    <t>Client Consultation Call</t>
+  </si>
+  <si>
+    <t>Budget Planning Meeting</t>
+  </si>
+  <si>
+    <t>Product Development Update</t>
+  </si>
+  <si>
+    <t>Marketing Campaign Brainstorm</t>
+  </si>
+  <si>
+    <t>IT System Upgrade Briefing</t>
+  </si>
+  <si>
+    <t>Sales Performance Review</t>
+  </si>
+  <si>
+    <t>Leadership Training Workshop</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Join us for the initial meeting to launch the new project. We'll outline the project scope, objectives, timeline, and responsibilities.</t>
+  </si>
+  <si>
+    <t>A comprehensive review of the business performance over the past quarter. We will discuss key metrics, achievements, challenges, and strategic adjustments</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>A dedicated session with the client to understand their needs, provide updates on project progress, and address any concerns or questions</t>
+  </si>
+  <si>
+    <t>An essential meeting to plan and allocate the budget for the next fiscal period. We'll review financial goals, expenditures, and investment opportunities.</t>
+  </si>
+  <si>
+    <t>Catch up on the latest progress in product development. This meeting will cover milestones achieved, upcoming tasks, and any blockers needing attention.</t>
+  </si>
+  <si>
+    <t>A creative brainstorming session to generate ideas for the upcoming marketing campaign. We'll discuss themes, target audiences, channels, and key messages.</t>
+  </si>
+  <si>
+    <t>Participate in a workshop designed to enhance leadership skills. Topics include effective communication, team motivation, conflict resolution, and strategic decision-making.</t>
+  </si>
+  <si>
+    <t>31/8/2024</t>
+  </si>
+  <si>
+    <t>31/10/2024</t>
+  </si>
+  <si>
+    <t>31/12/2024</t>
+  </si>
+  <si>
+    <t>15/8/2024</t>
+  </si>
+  <si>
+    <t>19/9/2024</t>
+  </si>
+  <si>
+    <t>3/11/2024</t>
+  </si>
+  <si>
+    <t>17/12/2024</t>
+  </si>
+  <si>
+    <t>5/9/2024</t>
+  </si>
+  <si>
+    <t>HCMUS I42</t>
+  </si>
+  <si>
+    <t>HCMUS I43</t>
+  </si>
+  <si>
+    <t>HCMUS I44</t>
+  </si>
+  <si>
+    <t>HCMUS I45</t>
+  </si>
+  <si>
+    <t>HCMUS I46</t>
+  </si>
+  <si>
+    <t>HCMUS I47</t>
+  </si>
+  <si>
+    <t>HCMUS I48</t>
+  </si>
+  <si>
+    <t>30/9/2024</t>
+  </si>
+  <si>
+    <t>30/11/2024</t>
+  </si>
+  <si>
+    <t>The sun set over the horizon, casting a golden hue across the landscape. Birds chirped melodiously, returning to their nests. Children played in the park, laughter echoing through the air. As the day ended, a sense of peace enveloped the town, promisings</t>
   </si>
 </sst>
 </file>
@@ -90,10 +180,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,14 +500,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
@@ -429,84 +536,224 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.40625</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.40625</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.40625</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.40625</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
